--- a/interest-calculator/assets/shekel-interest.xlsx
+++ b/interest-calculator/assets/shekel-interest.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE996F6-C486-435B-8137-D67C9DDE658A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B2067D-BC78-4B5C-A616-279B0BD1CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>ריבית שקלית</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>3.1</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -761,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1411,6 +1415,14 @@
         <v>122</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
